--- a/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
+++ b/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1170"/>
+  <dimension ref="A1:Q1177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61992,7 +61992,7 @@
         <v>4</v>
       </c>
       <c r="N1161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1161" t="n">
         <v>0</v>
@@ -62159,7 +62159,9 @@
       <c r="P1164" t="n">
         <v>0</v>
       </c>
-      <c r="Q1164" t="inlineStr"/>
+      <c r="Q1164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1165">
       <c r="A1165" s="2" t="n">
@@ -62210,7 +62212,9 @@
       <c r="P1165" t="n">
         <v>0</v>
       </c>
-      <c r="Q1165" t="inlineStr"/>
+      <c r="Q1165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1166">
       <c r="A1166" s="2" t="n">
@@ -62261,7 +62265,9 @@
       <c r="P1166" t="n">
         <v>0</v>
       </c>
-      <c r="Q1166" t="inlineStr"/>
+      <c r="Q1166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1167">
       <c r="A1167" s="2" t="n">
@@ -62312,7 +62318,9 @@
       <c r="P1167" t="n">
         <v>0</v>
       </c>
-      <c r="Q1167" t="inlineStr"/>
+      <c r="Q1167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1168">
       <c r="A1168" s="2" t="n">
@@ -62363,7 +62371,9 @@
       <c r="P1168" t="n">
         <v>0</v>
       </c>
-      <c r="Q1168" t="inlineStr"/>
+      <c r="Q1168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1169">
       <c r="A1169" s="2" t="n">
@@ -62414,7 +62424,9 @@
       <c r="P1169" t="n">
         <v>0</v>
       </c>
-      <c r="Q1169" t="inlineStr"/>
+      <c r="Q1169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1170">
       <c r="A1170" s="2" t="n">
@@ -62465,7 +62477,366 @@
       <c r="P1170" t="n">
         <v>0</v>
       </c>
-      <c r="Q1170" t="inlineStr"/>
+      <c r="Q1170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" s="2" t="n">
+        <v>45681.38541666666</v>
+      </c>
+      <c r="B1171" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="C1171" t="n">
+        <v>193.6000061035156</v>
+      </c>
+      <c r="D1171" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="E1171" t="n">
+        <v>193.6000061035156</v>
+      </c>
+      <c r="F1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1171" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1171" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1171" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1171" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1171" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1171" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1171" t="inlineStr"/>
+    </row>
+    <row r="1172">
+      <c r="A1172" s="2" t="n">
+        <v>45681.42708333334</v>
+      </c>
+      <c r="B1172" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="C1172" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="D1172" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="E1172" t="n">
+        <v>193.5</v>
+      </c>
+      <c r="F1172" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1172" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1172" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1172" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1172" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1172" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1172" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1172" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1172" t="inlineStr"/>
+    </row>
+    <row r="1173">
+      <c r="A1173" s="2" t="n">
+        <v>45681.46875</v>
+      </c>
+      <c r="B1173" t="n">
+        <v>190.1499938964844</v>
+      </c>
+      <c r="C1173" t="n">
+        <v>190.5500030517578</v>
+      </c>
+      <c r="D1173" t="n">
+        <v>190.1499938964844</v>
+      </c>
+      <c r="E1173" t="n">
+        <v>190.5500030517578</v>
+      </c>
+      <c r="F1173" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1173" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1173" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1173" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1173" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1173" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1173" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1173" t="inlineStr"/>
+    </row>
+    <row r="1174">
+      <c r="A1174" s="2" t="n">
+        <v>45681.51041666666</v>
+      </c>
+      <c r="B1174" t="n">
+        <v>194</v>
+      </c>
+      <c r="C1174" t="n">
+        <v>194</v>
+      </c>
+      <c r="D1174" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="E1174" t="n">
+        <v>188.9499969482422</v>
+      </c>
+      <c r="F1174" t="n">
+        <v>5400</v>
+      </c>
+      <c r="G1174" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1174" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1174" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1174" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1174" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1174" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1174" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1174" t="inlineStr"/>
+    </row>
+    <row r="1175">
+      <c r="A1175" s="2" t="n">
+        <v>45681.55208333334</v>
+      </c>
+      <c r="B1175" t="n">
+        <v>189.0500030517578</v>
+      </c>
+      <c r="C1175" t="n">
+        <v>192</v>
+      </c>
+      <c r="D1175" t="n">
+        <v>188.1999969482422</v>
+      </c>
+      <c r="E1175" t="n">
+        <v>188.1999969482422</v>
+      </c>
+      <c r="F1175" t="n">
+        <v>7800</v>
+      </c>
+      <c r="G1175" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1175" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1175" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1175" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1175" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1175" t="inlineStr"/>
+    </row>
+    <row r="1176">
+      <c r="A1176" s="2" t="n">
+        <v>45681.59375</v>
+      </c>
+      <c r="B1176" t="n">
+        <v>186.1999969482422</v>
+      </c>
+      <c r="C1176" t="n">
+        <v>187.9499969482422</v>
+      </c>
+      <c r="D1176" t="n">
+        <v>183.1999969482422</v>
+      </c>
+      <c r="E1176" t="n">
+        <v>183.5500030517578</v>
+      </c>
+      <c r="F1176" t="n">
+        <v>9000</v>
+      </c>
+      <c r="G1176" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1176" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1176" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1176" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1176" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1176" t="inlineStr"/>
+    </row>
+    <row r="1177">
+      <c r="A1177" s="2" t="n">
+        <v>45681.63541666666</v>
+      </c>
+      <c r="B1177" t="n">
+        <v>182.5500030517578</v>
+      </c>
+      <c r="C1177" t="n">
+        <v>185</v>
+      </c>
+      <c r="D1177" t="n">
+        <v>181</v>
+      </c>
+      <c r="E1177" t="n">
+        <v>182.25</v>
+      </c>
+      <c r="F1177" t="n">
+        <v>12000</v>
+      </c>
+      <c r="G1177" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1177" t="n">
+        <v>24</v>
+      </c>
+      <c r="J1177" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1177" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1177" t="n">
+        <v>4</v>
+      </c>
+      <c r="N1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1177" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
+++ b/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1177"/>
+  <dimension ref="A1:Q1188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62530,7 +62530,9 @@
       <c r="P1171" t="n">
         <v>0</v>
       </c>
-      <c r="Q1171" t="inlineStr"/>
+      <c r="Q1171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1172">
       <c r="A1172" s="2" t="n">
@@ -62581,7 +62583,9 @@
       <c r="P1172" t="n">
         <v>2</v>
       </c>
-      <c r="Q1172" t="inlineStr"/>
+      <c r="Q1172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1173">
       <c r="A1173" s="2" t="n">
@@ -62632,7 +62636,9 @@
       <c r="P1173" t="n">
         <v>0</v>
       </c>
-      <c r="Q1173" t="inlineStr"/>
+      <c r="Q1173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1174">
       <c r="A1174" s="2" t="n">
@@ -62683,7 +62689,9 @@
       <c r="P1174" t="n">
         <v>0</v>
       </c>
-      <c r="Q1174" t="inlineStr"/>
+      <c r="Q1174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1175">
       <c r="A1175" s="2" t="n">
@@ -62734,7 +62742,9 @@
       <c r="P1175" t="n">
         <v>0</v>
       </c>
-      <c r="Q1175" t="inlineStr"/>
+      <c r="Q1175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1176">
       <c r="A1176" s="2" t="n">
@@ -62785,7 +62795,9 @@
       <c r="P1176" t="n">
         <v>0</v>
       </c>
-      <c r="Q1176" t="inlineStr"/>
+      <c r="Q1176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1177">
       <c r="A1177" s="2" t="n">
@@ -62836,7 +62848,570 @@
       <c r="P1177" t="n">
         <v>0</v>
       </c>
-      <c r="Q1177" t="inlineStr"/>
+      <c r="Q1177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" s="2" t="n">
+        <v>45684.38541666666</v>
+      </c>
+      <c r="B1178" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="C1178" t="n">
+        <v>183.8000030517578</v>
+      </c>
+      <c r="D1178" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E1178" t="n">
+        <v>180</v>
+      </c>
+      <c r="F1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1178" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1178" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1178" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1178" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1178" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1178" t="inlineStr"/>
+    </row>
+    <row r="1179">
+      <c r="A1179" s="2" t="n">
+        <v>45684.42708333334</v>
+      </c>
+      <c r="B1179" t="n">
+        <v>172</v>
+      </c>
+      <c r="C1179" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1179" t="n">
+        <v>165</v>
+      </c>
+      <c r="E1179" t="n">
+        <v>170</v>
+      </c>
+      <c r="F1179" t="n">
+        <v>12600</v>
+      </c>
+      <c r="G1179" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1179" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1179" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1179" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1179" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1179" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1179" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1179" t="inlineStr"/>
+    </row>
+    <row r="1180">
+      <c r="A1180" s="2" t="n">
+        <v>45684.46875</v>
+      </c>
+      <c r="B1180" t="n">
+        <v>170</v>
+      </c>
+      <c r="C1180" t="n">
+        <v>174</v>
+      </c>
+      <c r="D1180" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="E1180" t="n">
+        <v>172</v>
+      </c>
+      <c r="F1180" t="n">
+        <v>8400</v>
+      </c>
+      <c r="G1180" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1180" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1180" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1180" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1180" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1180" t="inlineStr"/>
+    </row>
+    <row r="1181">
+      <c r="A1181" s="2" t="n">
+        <v>45684.55208333334</v>
+      </c>
+      <c r="B1181" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="C1181" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1181" t="n">
+        <v>173</v>
+      </c>
+      <c r="E1181" t="n">
+        <v>173</v>
+      </c>
+      <c r="F1181" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G1181" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1181" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1181" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1181" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1181" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1181" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1181" t="inlineStr"/>
+    </row>
+    <row r="1182">
+      <c r="A1182" s="2" t="n">
+        <v>45684.59375</v>
+      </c>
+      <c r="B1182" t="n">
+        <v>172</v>
+      </c>
+      <c r="C1182" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1182" t="n">
+        <v>172</v>
+      </c>
+      <c r="E1182" t="n">
+        <v>172</v>
+      </c>
+      <c r="F1182" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1182" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1182" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1182" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1182" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1182" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1182" t="inlineStr"/>
+    </row>
+    <row r="1183">
+      <c r="A1183" s="2" t="n">
+        <v>45684.63541666666</v>
+      </c>
+      <c r="B1183" t="n">
+        <v>170</v>
+      </c>
+      <c r="C1183" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1183" t="n">
+        <v>170</v>
+      </c>
+      <c r="E1183" t="n">
+        <v>170</v>
+      </c>
+      <c r="F1183" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1183" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1183" t="n">
+        <v>27</v>
+      </c>
+      <c r="J1183" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1183" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1183" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1183" t="inlineStr"/>
+    </row>
+    <row r="1184">
+      <c r="A1184" s="2" t="n">
+        <v>45685.46875</v>
+      </c>
+      <c r="B1184" t="n">
+        <v>169</v>
+      </c>
+      <c r="C1184" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="D1184" t="n">
+        <v>161.1000061035156</v>
+      </c>
+      <c r="E1184" t="n">
+        <v>161.1000061035156</v>
+      </c>
+      <c r="F1184" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1184" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1184" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1184" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1184" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1184" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1184" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1184" t="inlineStr"/>
+    </row>
+    <row r="1185">
+      <c r="A1185" s="2" t="n">
+        <v>45685.51041666666</v>
+      </c>
+      <c r="B1185" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="C1185" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="D1185" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="E1185" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="F1185" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1185" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1185" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1185" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1185" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1185" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1185" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1185" t="inlineStr"/>
+    </row>
+    <row r="1186">
+      <c r="A1186" s="2" t="n">
+        <v>45685.55208333334</v>
+      </c>
+      <c r="B1186" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="C1186" t="n">
+        <v>169.8500061035156</v>
+      </c>
+      <c r="D1186" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="E1186" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="F1186" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1186" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1186" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1186" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1186" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1186" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1186" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1186" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1186" t="inlineStr"/>
+    </row>
+    <row r="1187">
+      <c r="A1187" s="2" t="n">
+        <v>45685.59375</v>
+      </c>
+      <c r="B1187" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="C1187" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="D1187" t="n">
+        <v>167</v>
+      </c>
+      <c r="E1187" t="n">
+        <v>167</v>
+      </c>
+      <c r="F1187" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1187" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1187" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1187" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1187" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1187" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1187" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1187" t="inlineStr"/>
+    </row>
+    <row r="1188">
+      <c r="A1188" s="2" t="n">
+        <v>45685.63541666666</v>
+      </c>
+      <c r="B1188" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="C1188" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="D1188" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="E1188" t="n">
+        <v>169.5</v>
+      </c>
+      <c r="F1188" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1188" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1188" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1188" t="n">
+        <v>28</v>
+      </c>
+      <c r="J1188" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1188" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1188" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1188" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
+++ b/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1188"/>
+  <dimension ref="A1:Q1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -62901,7 +62901,9 @@
       <c r="P1178" t="n">
         <v>0</v>
       </c>
-      <c r="Q1178" t="inlineStr"/>
+      <c r="Q1178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1179">
       <c r="A1179" s="2" t="n">
@@ -62952,7 +62954,9 @@
       <c r="P1179" t="n">
         <v>0</v>
       </c>
-      <c r="Q1179" t="inlineStr"/>
+      <c r="Q1179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1180">
       <c r="A1180" s="2" t="n">
@@ -63003,7 +63007,9 @@
       <c r="P1180" t="n">
         <v>0</v>
       </c>
-      <c r="Q1180" t="inlineStr"/>
+      <c r="Q1180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1181">
       <c r="A1181" s="2" t="n">
@@ -63054,7 +63060,9 @@
       <c r="P1181" t="n">
         <v>0</v>
       </c>
-      <c r="Q1181" t="inlineStr"/>
+      <c r="Q1181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1182">
       <c r="A1182" s="2" t="n">
@@ -63105,7 +63113,9 @@
       <c r="P1182" t="n">
         <v>0</v>
       </c>
-      <c r="Q1182" t="inlineStr"/>
+      <c r="Q1182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1183">
       <c r="A1183" s="2" t="n">
@@ -63156,7 +63166,9 @@
       <c r="P1183" t="n">
         <v>0</v>
       </c>
-      <c r="Q1183" t="inlineStr"/>
+      <c r="Q1183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1184">
       <c r="A1184" s="2" t="n">
@@ -63199,7 +63211,7 @@
         <v>5</v>
       </c>
       <c r="N1184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1184" t="n">
         <v>0</v>
@@ -63207,7 +63219,9 @@
       <c r="P1184" t="n">
         <v>0</v>
       </c>
-      <c r="Q1184" t="inlineStr"/>
+      <c r="Q1184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1185">
       <c r="A1185" s="2" t="n">
@@ -63258,7 +63272,9 @@
       <c r="P1185" t="n">
         <v>0</v>
       </c>
-      <c r="Q1185" t="inlineStr"/>
+      <c r="Q1185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1186">
       <c r="A1186" s="2" t="n">
@@ -63309,7 +63325,9 @@
       <c r="P1186" t="n">
         <v>0</v>
       </c>
-      <c r="Q1186" t="inlineStr"/>
+      <c r="Q1186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1187">
       <c r="A1187" s="2" t="n">
@@ -63360,7 +63378,9 @@
       <c r="P1187" t="n">
         <v>0</v>
       </c>
-      <c r="Q1187" t="inlineStr"/>
+      <c r="Q1187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1188">
       <c r="A1188" s="2" t="n">
@@ -63411,7 +63431,621 @@
       <c r="P1188" t="n">
         <v>0</v>
       </c>
-      <c r="Q1188" t="inlineStr"/>
+      <c r="Q1188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" s="2" t="n">
+        <v>45686.38541666666</v>
+      </c>
+      <c r="B1189" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="C1189" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="D1189" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="E1189" t="n">
+        <v>174.9499969482422</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1189" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1189" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1189" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1189" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1189" t="inlineStr"/>
+    </row>
+    <row r="1190">
+      <c r="A1190" s="2" t="n">
+        <v>45686.42708333334</v>
+      </c>
+      <c r="B1190" t="n">
+        <v>171.6000061035156</v>
+      </c>
+      <c r="C1190" t="n">
+        <v>174.8999938964844</v>
+      </c>
+      <c r="D1190" t="n">
+        <v>171.6000061035156</v>
+      </c>
+      <c r="E1190" t="n">
+        <v>174.8999938964844</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1190" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1190" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1190" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1190" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1190" t="inlineStr"/>
+    </row>
+    <row r="1191">
+      <c r="A1191" s="2" t="n">
+        <v>45686.46875</v>
+      </c>
+      <c r="B1191" t="n">
+        <v>174.8500061035156</v>
+      </c>
+      <c r="C1191" t="n">
+        <v>174.8500061035156</v>
+      </c>
+      <c r="D1191" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="E1191" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1191" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1191" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1191" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1191" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1191" t="inlineStr"/>
+    </row>
+    <row r="1192">
+      <c r="A1192" s="2" t="n">
+        <v>45686.51041666666</v>
+      </c>
+      <c r="B1192" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="C1192" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="D1192" t="n">
+        <v>173.4499969482422</v>
+      </c>
+      <c r="E1192" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1192" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1192" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1192" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1192" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1192" t="inlineStr"/>
+    </row>
+    <row r="1193">
+      <c r="A1193" s="2" t="n">
+        <v>45686.55208333334</v>
+      </c>
+      <c r="B1193" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C1193" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="D1193" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="E1193" t="n">
+        <v>174.6000061035156</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1193" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1193" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1193" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1193" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1193" t="inlineStr"/>
+    </row>
+    <row r="1194">
+      <c r="A1194" s="2" t="n">
+        <v>45686.59375</v>
+      </c>
+      <c r="B1194" t="n">
+        <v>173</v>
+      </c>
+      <c r="C1194" t="n">
+        <v>176.8000030517578</v>
+      </c>
+      <c r="D1194" t="n">
+        <v>172.5</v>
+      </c>
+      <c r="E1194" t="n">
+        <v>174.75</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>6000</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1194" t="n">
+        <v>29</v>
+      </c>
+      <c r="J1194" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1194" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1194" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1194" t="inlineStr"/>
+    </row>
+    <row r="1195">
+      <c r="A1195" s="2" t="n">
+        <v>45687.38541666666</v>
+      </c>
+      <c r="B1195" t="n">
+        <v>177.8999938964844</v>
+      </c>
+      <c r="C1195" t="n">
+        <v>180.0500030517578</v>
+      </c>
+      <c r="D1195" t="n">
+        <v>177.8999938964844</v>
+      </c>
+      <c r="E1195" t="n">
+        <v>179</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1195" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1195" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1195" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1195" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1195" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1195" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1195" t="inlineStr"/>
+    </row>
+    <row r="1196">
+      <c r="A1196" s="2" t="n">
+        <v>45687.42708333334</v>
+      </c>
+      <c r="B1196" t="n">
+        <v>179</v>
+      </c>
+      <c r="C1196" t="n">
+        <v>184</v>
+      </c>
+      <c r="D1196" t="n">
+        <v>179</v>
+      </c>
+      <c r="E1196" t="n">
+        <v>184</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1196" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1196" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1196" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1196" t="inlineStr"/>
+    </row>
+    <row r="1197">
+      <c r="A1197" s="2" t="n">
+        <v>45687.46875</v>
+      </c>
+      <c r="B1197" t="n">
+        <v>182</v>
+      </c>
+      <c r="C1197" t="n">
+        <v>182</v>
+      </c>
+      <c r="D1197" t="n">
+        <v>182</v>
+      </c>
+      <c r="E1197" t="n">
+        <v>182</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1197" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1197" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1197" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1197" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1197" t="inlineStr"/>
+    </row>
+    <row r="1198">
+      <c r="A1198" s="2" t="n">
+        <v>45687.55208333334</v>
+      </c>
+      <c r="B1198" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="C1198" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="D1198" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E1198" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1198" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1198" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1198" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1198" t="inlineStr"/>
+    </row>
+    <row r="1199">
+      <c r="A1199" s="2" t="n">
+        <v>45687.59375</v>
+      </c>
+      <c r="B1199" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="C1199" t="n">
+        <v>181.5</v>
+      </c>
+      <c r="D1199" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1199" t="n">
+        <v>180</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1199" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1199" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1199" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1199" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1199" t="inlineStr"/>
+    </row>
+    <row r="1200">
+      <c r="A1200" s="2" t="n">
+        <v>45687.63541666666</v>
+      </c>
+      <c r="B1200" t="n">
+        <v>177</v>
+      </c>
+      <c r="C1200" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="D1200" t="n">
+        <v>175.5</v>
+      </c>
+      <c r="E1200" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1200" t="n">
+        <v>30</v>
+      </c>
+      <c r="J1200" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1200" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1200" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
+++ b/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1200"/>
+  <dimension ref="A1:Q1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63484,7 +63484,9 @@
       <c r="P1189" t="n">
         <v>0</v>
       </c>
-      <c r="Q1189" t="inlineStr"/>
+      <c r="Q1189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190">
       <c r="A1190" s="2" t="n">
@@ -63535,7 +63537,9 @@
       <c r="P1190" t="n">
         <v>0</v>
       </c>
-      <c r="Q1190" t="inlineStr"/>
+      <c r="Q1190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191">
       <c r="A1191" s="2" t="n">
@@ -63586,7 +63590,9 @@
       <c r="P1191" t="n">
         <v>0</v>
       </c>
-      <c r="Q1191" t="inlineStr"/>
+      <c r="Q1191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1192">
       <c r="A1192" s="2" t="n">
@@ -63637,7 +63643,9 @@
       <c r="P1192" t="n">
         <v>0</v>
       </c>
-      <c r="Q1192" t="inlineStr"/>
+      <c r="Q1192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193">
       <c r="A1193" s="2" t="n">
@@ -63688,7 +63696,9 @@
       <c r="P1193" t="n">
         <v>0</v>
       </c>
-      <c r="Q1193" t="inlineStr"/>
+      <c r="Q1193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194">
       <c r="A1194" s="2" t="n">
@@ -63739,7 +63749,9 @@
       <c r="P1194" t="n">
         <v>0</v>
       </c>
-      <c r="Q1194" t="inlineStr"/>
+      <c r="Q1194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195">
       <c r="A1195" s="2" t="n">
@@ -63790,7 +63802,9 @@
       <c r="P1195" t="n">
         <v>1</v>
       </c>
-      <c r="Q1195" t="inlineStr"/>
+      <c r="Q1195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196">
       <c r="A1196" s="2" t="n">
@@ -63833,7 +63847,7 @@
         <v>5</v>
       </c>
       <c r="N1196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1196" t="n">
         <v>0</v>
@@ -63841,7 +63855,9 @@
       <c r="P1196" t="n">
         <v>0</v>
       </c>
-      <c r="Q1196" t="inlineStr"/>
+      <c r="Q1196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197">
       <c r="A1197" s="2" t="n">
@@ -63892,7 +63908,9 @@
       <c r="P1197" t="n">
         <v>0</v>
       </c>
-      <c r="Q1197" t="inlineStr"/>
+      <c r="Q1197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198">
       <c r="A1198" s="2" t="n">
@@ -63943,7 +63961,9 @@
       <c r="P1198" t="n">
         <v>0</v>
       </c>
-      <c r="Q1198" t="inlineStr"/>
+      <c r="Q1198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199">
       <c r="A1199" s="2" t="n">
@@ -63994,7 +64014,9 @@
       <c r="P1199" t="n">
         <v>0</v>
       </c>
-      <c r="Q1199" t="inlineStr"/>
+      <c r="Q1199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200">
       <c r="A1200" s="2" t="n">
@@ -64045,7 +64067,570 @@
       <c r="P1200" t="n">
         <v>0</v>
       </c>
-      <c r="Q1200" t="inlineStr"/>
+      <c r="Q1200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" s="2" t="n">
+        <v>45688.38541666666</v>
+      </c>
+      <c r="B1201" t="n">
+        <v>175</v>
+      </c>
+      <c r="C1201" t="n">
+        <v>175.9499969482422</v>
+      </c>
+      <c r="D1201" t="n">
+        <v>172</v>
+      </c>
+      <c r="E1201" t="n">
+        <v>175.9499969482422</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1201" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1201" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1201" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1201" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1201" t="inlineStr"/>
+    </row>
+    <row r="1202">
+      <c r="A1202" s="2" t="n">
+        <v>45688.42708333334</v>
+      </c>
+      <c r="B1202" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="C1202" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="D1202" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="E1202" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>2400</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1202" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1202" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1202" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1202" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1202" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1202" t="inlineStr"/>
+    </row>
+    <row r="1203">
+      <c r="A1203" s="2" t="n">
+        <v>45688.46875</v>
+      </c>
+      <c r="B1203" t="n">
+        <v>174</v>
+      </c>
+      <c r="C1203" t="n">
+        <v>175</v>
+      </c>
+      <c r="D1203" t="n">
+        <v>174</v>
+      </c>
+      <c r="E1203" t="n">
+        <v>175</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1203" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1203" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1203" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1203" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1203" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1203" t="inlineStr"/>
+    </row>
+    <row r="1204">
+      <c r="A1204" s="2" t="n">
+        <v>45688.59375</v>
+      </c>
+      <c r="B1204" t="n">
+        <v>176</v>
+      </c>
+      <c r="C1204" t="n">
+        <v>177</v>
+      </c>
+      <c r="D1204" t="n">
+        <v>176</v>
+      </c>
+      <c r="E1204" t="n">
+        <v>177</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1204" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1204" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1204" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1204" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1204" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1204" t="inlineStr"/>
+    </row>
+    <row r="1205">
+      <c r="A1205" s="2" t="n">
+        <v>45688.63541666666</v>
+      </c>
+      <c r="B1205" t="n">
+        <v>177</v>
+      </c>
+      <c r="C1205" t="n">
+        <v>177</v>
+      </c>
+      <c r="D1205" t="n">
+        <v>177</v>
+      </c>
+      <c r="E1205" t="n">
+        <v>177</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I1205" t="n">
+        <v>31</v>
+      </c>
+      <c r="J1205" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1205" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1205" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1205" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1205" t="inlineStr"/>
+    </row>
+    <row r="1206">
+      <c r="A1206" s="2" t="n">
+        <v>45689.59375</v>
+      </c>
+      <c r="B1206" t="n">
+        <v>178</v>
+      </c>
+      <c r="C1206" t="n">
+        <v>178</v>
+      </c>
+      <c r="D1206" t="n">
+        <v>178</v>
+      </c>
+      <c r="E1206" t="n">
+        <v>178</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1206" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1206" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1206" t="n">
+        <v>5</v>
+      </c>
+      <c r="N1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1206" t="inlineStr"/>
+    </row>
+    <row r="1207">
+      <c r="A1207" s="2" t="n">
+        <v>45691.38541666666</v>
+      </c>
+      <c r="B1207" t="n">
+        <v>166</v>
+      </c>
+      <c r="C1207" t="n">
+        <v>171.4499969482422</v>
+      </c>
+      <c r="D1207" t="n">
+        <v>166</v>
+      </c>
+      <c r="E1207" t="n">
+        <v>171.4499969482422</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1207" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1207" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1207" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1207" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1207" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1207" t="inlineStr"/>
+    </row>
+    <row r="1208">
+      <c r="A1208" s="2" t="n">
+        <v>45691.42708333334</v>
+      </c>
+      <c r="B1208" t="n">
+        <v>171</v>
+      </c>
+      <c r="C1208" t="n">
+        <v>171</v>
+      </c>
+      <c r="D1208" t="n">
+        <v>171</v>
+      </c>
+      <c r="E1208" t="n">
+        <v>171</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1208" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1208" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1208" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1208" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1208" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1208" t="inlineStr"/>
+    </row>
+    <row r="1209">
+      <c r="A1209" s="2" t="n">
+        <v>45691.46875</v>
+      </c>
+      <c r="B1209" t="n">
+        <v>169.1999969482422</v>
+      </c>
+      <c r="C1209" t="n">
+        <v>169.1999969482422</v>
+      </c>
+      <c r="D1209" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="E1209" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1209" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1209" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1209" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1209" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1209" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1209" t="inlineStr"/>
+    </row>
+    <row r="1210">
+      <c r="A1210" s="2" t="n">
+        <v>45691.55208333334</v>
+      </c>
+      <c r="B1210" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="C1210" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="D1210" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="E1210" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1210" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1210" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1210" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1210" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1210" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1210" t="inlineStr"/>
+    </row>
+    <row r="1211">
+      <c r="A1211" s="2" t="n">
+        <v>45691.63541666666</v>
+      </c>
+      <c r="B1211" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="C1211" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="D1211" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="E1211" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1211" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1211" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1211" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1211" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1211" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1211" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
+++ b/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1211"/>
+  <dimension ref="A1:Q1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64120,7 +64120,9 @@
       <c r="P1201" t="n">
         <v>0</v>
       </c>
-      <c r="Q1201" t="inlineStr"/>
+      <c r="Q1201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1202">
       <c r="A1202" s="2" t="n">
@@ -64171,7 +64173,9 @@
       <c r="P1202" t="n">
         <v>0</v>
       </c>
-      <c r="Q1202" t="inlineStr"/>
+      <c r="Q1202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1203">
       <c r="A1203" s="2" t="n">
@@ -64222,7 +64226,9 @@
       <c r="P1203" t="n">
         <v>0</v>
       </c>
-      <c r="Q1203" t="inlineStr"/>
+      <c r="Q1203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1204">
       <c r="A1204" s="2" t="n">
@@ -64273,7 +64279,9 @@
       <c r="P1204" t="n">
         <v>0</v>
       </c>
-      <c r="Q1204" t="inlineStr"/>
+      <c r="Q1204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1205">
       <c r="A1205" s="2" t="n">
@@ -64324,7 +64332,9 @@
       <c r="P1205" t="n">
         <v>0</v>
       </c>
-      <c r="Q1205" t="inlineStr"/>
+      <c r="Q1205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1206">
       <c r="A1206" s="2" t="n">
@@ -64375,7 +64385,9 @@
       <c r="P1206" t="n">
         <v>0</v>
       </c>
-      <c r="Q1206" t="inlineStr"/>
+      <c r="Q1206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1207">
       <c r="A1207" s="2" t="n">
@@ -64418,7 +64430,7 @@
         <v>6</v>
       </c>
       <c r="N1207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1207" t="n">
         <v>0</v>
@@ -64426,7 +64438,9 @@
       <c r="P1207" t="n">
         <v>2</v>
       </c>
-      <c r="Q1207" t="inlineStr"/>
+      <c r="Q1207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1208">
       <c r="A1208" s="2" t="n">
@@ -64477,7 +64491,9 @@
       <c r="P1208" t="n">
         <v>0</v>
       </c>
-      <c r="Q1208" t="inlineStr"/>
+      <c r="Q1208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1209">
       <c r="A1209" s="2" t="n">
@@ -64528,7 +64544,9 @@
       <c r="P1209" t="n">
         <v>0</v>
       </c>
-      <c r="Q1209" t="inlineStr"/>
+      <c r="Q1209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1210">
       <c r="A1210" s="2" t="n">
@@ -64579,7 +64597,9 @@
       <c r="P1210" t="n">
         <v>0</v>
       </c>
-      <c r="Q1210" t="inlineStr"/>
+      <c r="Q1210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1211">
       <c r="A1211" s="2" t="n">
@@ -64630,7 +64650,468 @@
       <c r="P1211" t="n">
         <v>0</v>
       </c>
-      <c r="Q1211" t="inlineStr"/>
+      <c r="Q1211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" s="2" t="n">
+        <v>45692.42708333334</v>
+      </c>
+      <c r="B1212" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="C1212" t="n">
+        <v>173.5</v>
+      </c>
+      <c r="D1212" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="E1212" t="n">
+        <v>170.4499969482422</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1212" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1212" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1212" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1212" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1212" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1212" t="inlineStr"/>
+    </row>
+    <row r="1213">
+      <c r="A1213" s="2" t="n">
+        <v>45692.55208333334</v>
+      </c>
+      <c r="B1213" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="C1213" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="D1213" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="E1213" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="F1213" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1213" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1213" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1213" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1213" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1213" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1213" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1213" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1213" t="inlineStr"/>
+    </row>
+    <row r="1214">
+      <c r="A1214" s="2" t="n">
+        <v>45692.59375</v>
+      </c>
+      <c r="B1214" t="n">
+        <v>181.9499969482422</v>
+      </c>
+      <c r="C1214" t="n">
+        <v>181.9499969482422</v>
+      </c>
+      <c r="D1214" t="n">
+        <v>181.9499969482422</v>
+      </c>
+      <c r="E1214" t="n">
+        <v>181.9499969482422</v>
+      </c>
+      <c r="F1214" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1214" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1214" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1214" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1214" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1214" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1214" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1214" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1214" t="inlineStr"/>
+    </row>
+    <row r="1215">
+      <c r="A1215" s="2" t="n">
+        <v>45692.63541666666</v>
+      </c>
+      <c r="B1215" t="n">
+        <v>180.9499969482422</v>
+      </c>
+      <c r="C1215" t="n">
+        <v>180.9499969482422</v>
+      </c>
+      <c r="D1215" t="n">
+        <v>180.9499969482422</v>
+      </c>
+      <c r="E1215" t="n">
+        <v>180.9499969482422</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1215" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1215" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1215" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1215" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1215" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1215" t="inlineStr"/>
+    </row>
+    <row r="1216">
+      <c r="A1216" s="2" t="n">
+        <v>45693.38541666666</v>
+      </c>
+      <c r="B1216" t="n">
+        <v>180</v>
+      </c>
+      <c r="C1216" t="n">
+        <v>186</v>
+      </c>
+      <c r="D1216" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1216" t="n">
+        <v>186</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1216" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1216" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1216" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1216" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1216" t="inlineStr"/>
+    </row>
+    <row r="1217">
+      <c r="A1217" s="2" t="n">
+        <v>45693.42708333334</v>
+      </c>
+      <c r="B1217" t="n">
+        <v>185.8999938964844</v>
+      </c>
+      <c r="C1217" t="n">
+        <v>185.8999938964844</v>
+      </c>
+      <c r="D1217" t="n">
+        <v>183.1499938964844</v>
+      </c>
+      <c r="E1217" t="n">
+        <v>184</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>10200</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1217" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1217" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1217" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1217" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1217" t="inlineStr"/>
+    </row>
+    <row r="1218">
+      <c r="A1218" s="2" t="n">
+        <v>45693.51041666666</v>
+      </c>
+      <c r="B1218" t="n">
+        <v>184.1000061035156</v>
+      </c>
+      <c r="C1218" t="n">
+        <v>185</v>
+      </c>
+      <c r="D1218" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="E1218" t="n">
+        <v>180.5</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1218" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1218" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1218" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1218" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1218" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1218" t="inlineStr"/>
+    </row>
+    <row r="1219">
+      <c r="A1219" s="2" t="n">
+        <v>45693.55208333334</v>
+      </c>
+      <c r="B1219" t="n">
+        <v>180.1999969482422</v>
+      </c>
+      <c r="C1219" t="n">
+        <v>180.1999969482422</v>
+      </c>
+      <c r="D1219" t="n">
+        <v>180.1999969482422</v>
+      </c>
+      <c r="E1219" t="n">
+        <v>180.1999969482422</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1219" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1219" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1219" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1219" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1219" t="inlineStr"/>
+    </row>
+    <row r="1220">
+      <c r="A1220" s="2" t="n">
+        <v>45693.59375</v>
+      </c>
+      <c r="B1220" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="C1220" t="n">
+        <v>182.3999938964844</v>
+      </c>
+      <c r="D1220" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1220" t="n">
+        <v>180</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1220" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1220" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1220" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1220" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1220" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
+++ b/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1220"/>
+  <dimension ref="A1:Q1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64703,7 +64703,9 @@
       <c r="P1212" t="n">
         <v>0</v>
       </c>
-      <c r="Q1212" t="inlineStr"/>
+      <c r="Q1212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1213">
       <c r="A1213" s="2" t="n">
@@ -64754,7 +64756,9 @@
       <c r="P1213" t="n">
         <v>0</v>
       </c>
-      <c r="Q1213" t="inlineStr"/>
+      <c r="Q1213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1214">
       <c r="A1214" s="2" t="n">
@@ -64805,7 +64809,9 @@
       <c r="P1214" t="n">
         <v>0</v>
       </c>
-      <c r="Q1214" t="inlineStr"/>
+      <c r="Q1214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1215">
       <c r="A1215" s="2" t="n">
@@ -64856,7 +64862,9 @@
       <c r="P1215" t="n">
         <v>0</v>
       </c>
-      <c r="Q1215" t="inlineStr"/>
+      <c r="Q1215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1216">
       <c r="A1216" s="2" t="n">
@@ -64899,7 +64907,7 @@
         <v>6</v>
       </c>
       <c r="N1216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1216" t="n">
         <v>0</v>
@@ -64907,7 +64915,9 @@
       <c r="P1216" t="n">
         <v>0</v>
       </c>
-      <c r="Q1216" t="inlineStr"/>
+      <c r="Q1216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1217">
       <c r="A1217" s="2" t="n">
@@ -64958,7 +64968,9 @@
       <c r="P1217" t="n">
         <v>0</v>
       </c>
-      <c r="Q1217" t="inlineStr"/>
+      <c r="Q1217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1218">
       <c r="A1218" s="2" t="n">
@@ -65009,7 +65021,9 @@
       <c r="P1218" t="n">
         <v>1</v>
       </c>
-      <c r="Q1218" t="inlineStr"/>
+      <c r="Q1218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1219">
       <c r="A1219" s="2" t="n">
@@ -65060,7 +65074,9 @@
       <c r="P1219" t="n">
         <v>0</v>
       </c>
-      <c r="Q1219" t="inlineStr"/>
+      <c r="Q1219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="2" t="n">
@@ -65111,7 +65127,774 @@
       <c r="P1220" t="n">
         <v>0</v>
       </c>
-      <c r="Q1220" t="inlineStr"/>
+      <c r="Q1220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" s="2" t="n">
+        <v>45694.38541666666</v>
+      </c>
+      <c r="B1221" t="n">
+        <v>180</v>
+      </c>
+      <c r="C1221" t="n">
+        <v>180</v>
+      </c>
+      <c r="D1221" t="n">
+        <v>180</v>
+      </c>
+      <c r="E1221" t="n">
+        <v>180</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1221" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1221" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1221" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1221" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1221" t="inlineStr"/>
+    </row>
+    <row r="1222">
+      <c r="A1222" s="2" t="n">
+        <v>45694.46875</v>
+      </c>
+      <c r="B1222" t="n">
+        <v>176</v>
+      </c>
+      <c r="C1222" t="n">
+        <v>176</v>
+      </c>
+      <c r="D1222" t="n">
+        <v>176</v>
+      </c>
+      <c r="E1222" t="n">
+        <v>176</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1222" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1222" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1222" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1222" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1222" t="inlineStr"/>
+    </row>
+    <row r="1223">
+      <c r="A1223" s="2" t="n">
+        <v>45694.51041666666</v>
+      </c>
+      <c r="B1223" t="n">
+        <v>178.0500030517578</v>
+      </c>
+      <c r="C1223" t="n">
+        <v>178.0500030517578</v>
+      </c>
+      <c r="D1223" t="n">
+        <v>175.25</v>
+      </c>
+      <c r="E1223" t="n">
+        <v>175.25</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>4800</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1223" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1223" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1223" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1223" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1223" t="inlineStr"/>
+    </row>
+    <row r="1224">
+      <c r="A1224" s="2" t="n">
+        <v>45694.59375</v>
+      </c>
+      <c r="B1224" t="n">
+        <v>175.3000030517578</v>
+      </c>
+      <c r="C1224" t="n">
+        <v>175.3000030517578</v>
+      </c>
+      <c r="D1224" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="E1224" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1224" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1224" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1224" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1224" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1224" t="inlineStr"/>
+    </row>
+    <row r="1225">
+      <c r="A1225" s="2" t="n">
+        <v>45694.63541666666</v>
+      </c>
+      <c r="B1225" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="C1225" t="n">
+        <v>176</v>
+      </c>
+      <c r="D1225" t="n">
+        <v>172.1999969482422</v>
+      </c>
+      <c r="E1225" t="n">
+        <v>174.1000061035156</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1225" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1225" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1225" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1225" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1225" t="inlineStr"/>
+    </row>
+    <row r="1226">
+      <c r="A1226" s="2" t="n">
+        <v>45695.38541666666</v>
+      </c>
+      <c r="B1226" t="n">
+        <v>176.8999938964844</v>
+      </c>
+      <c r="C1226" t="n">
+        <v>176.8999938964844</v>
+      </c>
+      <c r="D1226" t="n">
+        <v>176</v>
+      </c>
+      <c r="E1226" t="n">
+        <v>176</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1226" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1226" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1226" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1226" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1226" t="inlineStr"/>
+    </row>
+    <row r="1227">
+      <c r="A1227" s="2" t="n">
+        <v>45695.46875</v>
+      </c>
+      <c r="B1227" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C1227" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D1227" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="E1227" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1227" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1227" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1227" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1227" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1227" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1227" t="inlineStr"/>
+    </row>
+    <row r="1228">
+      <c r="A1228" s="2" t="n">
+        <v>45695.55208333334</v>
+      </c>
+      <c r="B1228" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="C1228" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D1228" t="n">
+        <v>174</v>
+      </c>
+      <c r="E1228" t="n">
+        <v>174</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1228" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1228" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1228" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1228" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1228" t="inlineStr"/>
+    </row>
+    <row r="1229">
+      <c r="A1229" s="2" t="n">
+        <v>45695.63541666666</v>
+      </c>
+      <c r="B1229" t="n">
+        <v>174</v>
+      </c>
+      <c r="C1229" t="n">
+        <v>174</v>
+      </c>
+      <c r="D1229" t="n">
+        <v>174</v>
+      </c>
+      <c r="E1229" t="n">
+        <v>174</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1229" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1229" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1229" t="n">
+        <v>6</v>
+      </c>
+      <c r="N1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1229" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1229" t="inlineStr"/>
+    </row>
+    <row r="1230">
+      <c r="A1230" s="2" t="n">
+        <v>45698.38541666666</v>
+      </c>
+      <c r="B1230" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="C1230" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="D1230" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="E1230" t="n">
+        <v>171.0500030517578</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1230" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1230" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1230" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1230" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1230" t="inlineStr"/>
+    </row>
+    <row r="1231">
+      <c r="A1231" s="2" t="n">
+        <v>45698.42708333334</v>
+      </c>
+      <c r="B1231" t="n">
+        <v>173</v>
+      </c>
+      <c r="C1231" t="n">
+        <v>173</v>
+      </c>
+      <c r="D1231" t="n">
+        <v>173</v>
+      </c>
+      <c r="E1231" t="n">
+        <v>173</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1231" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1231" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1231" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1231" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1231" t="inlineStr"/>
+    </row>
+    <row r="1232">
+      <c r="A1232" s="2" t="n">
+        <v>45698.46875</v>
+      </c>
+      <c r="B1232" t="n">
+        <v>173</v>
+      </c>
+      <c r="C1232" t="n">
+        <v>173</v>
+      </c>
+      <c r="D1232" t="n">
+        <v>173</v>
+      </c>
+      <c r="E1232" t="n">
+        <v>173</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1232" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1232" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1232" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1232" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1232" t="inlineStr"/>
+    </row>
+    <row r="1233">
+      <c r="A1233" s="2" t="n">
+        <v>45698.51041666666</v>
+      </c>
+      <c r="B1233" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="C1233" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="D1233" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="E1233" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1233" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1233" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1233" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1233" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1233" t="inlineStr"/>
+    </row>
+    <row r="1234">
+      <c r="A1234" s="2" t="n">
+        <v>45698.55208333334</v>
+      </c>
+      <c r="B1234" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="C1234" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="D1234" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="E1234" t="n">
+        <v>168.5</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1234" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1234" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1234" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1234" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1234" t="inlineStr"/>
+    </row>
+    <row r="1235">
+      <c r="A1235" s="2" t="n">
+        <v>45698.59375</v>
+      </c>
+      <c r="B1235" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="C1235" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="D1235" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="E1235" t="n">
+        <v>169.1000061035156</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1235" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1235" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1235" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
+++ b/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1235"/>
+  <dimension ref="A1:Q1246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65180,7 +65180,9 @@
       <c r="P1221" t="n">
         <v>0</v>
       </c>
-      <c r="Q1221" t="inlineStr"/>
+      <c r="Q1221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1222">
       <c r="A1222" s="2" t="n">
@@ -65231,7 +65233,9 @@
       <c r="P1222" t="n">
         <v>0</v>
       </c>
-      <c r="Q1222" t="inlineStr"/>
+      <c r="Q1222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1223">
       <c r="A1223" s="2" t="n">
@@ -65282,7 +65286,9 @@
       <c r="P1223" t="n">
         <v>0</v>
       </c>
-      <c r="Q1223" t="inlineStr"/>
+      <c r="Q1223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1224">
       <c r="A1224" s="2" t="n">
@@ -65333,7 +65339,9 @@
       <c r="P1224" t="n">
         <v>0</v>
       </c>
-      <c r="Q1224" t="inlineStr"/>
+      <c r="Q1224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1225">
       <c r="A1225" s="2" t="n">
@@ -65384,7 +65392,9 @@
       <c r="P1225" t="n">
         <v>0</v>
       </c>
-      <c r="Q1225" t="inlineStr"/>
+      <c r="Q1225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1226">
       <c r="A1226" s="2" t="n">
@@ -65435,7 +65445,9 @@
       <c r="P1226" t="n">
         <v>0</v>
       </c>
-      <c r="Q1226" t="inlineStr"/>
+      <c r="Q1226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1227">
       <c r="A1227" s="2" t="n">
@@ -65486,7 +65498,9 @@
       <c r="P1227" t="n">
         <v>2</v>
       </c>
-      <c r="Q1227" t="inlineStr"/>
+      <c r="Q1227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1228">
       <c r="A1228" s="2" t="n">
@@ -65537,7 +65551,9 @@
       <c r="P1228" t="n">
         <v>0</v>
       </c>
-      <c r="Q1228" t="inlineStr"/>
+      <c r="Q1228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1229">
       <c r="A1229" s="2" t="n">
@@ -65588,7 +65604,9 @@
       <c r="P1229" t="n">
         <v>0</v>
       </c>
-      <c r="Q1229" t="inlineStr"/>
+      <c r="Q1229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1230">
       <c r="A1230" s="2" t="n">
@@ -65639,7 +65657,9 @@
       <c r="P1230" t="n">
         <v>0</v>
       </c>
-      <c r="Q1230" t="inlineStr"/>
+      <c r="Q1230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1231">
       <c r="A1231" s="2" t="n">
@@ -65690,7 +65710,9 @@
       <c r="P1231" t="n">
         <v>0</v>
       </c>
-      <c r="Q1231" t="inlineStr"/>
+      <c r="Q1231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1232">
       <c r="A1232" s="2" t="n">
@@ -65741,7 +65763,9 @@
       <c r="P1232" t="n">
         <v>0</v>
       </c>
-      <c r="Q1232" t="inlineStr"/>
+      <c r="Q1232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1233">
       <c r="A1233" s="2" t="n">
@@ -65792,7 +65816,9 @@
       <c r="P1233" t="n">
         <v>0</v>
       </c>
-      <c r="Q1233" t="inlineStr"/>
+      <c r="Q1233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1234">
       <c r="A1234" s="2" t="n">
@@ -65843,7 +65869,9 @@
       <c r="P1234" t="n">
         <v>0</v>
       </c>
-      <c r="Q1234" t="inlineStr"/>
+      <c r="Q1234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1235">
       <c r="A1235" s="2" t="n">
@@ -65894,7 +65922,570 @@
       <c r="P1235" t="n">
         <v>0</v>
       </c>
-      <c r="Q1235" t="inlineStr"/>
+      <c r="Q1235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" s="2" t="n">
+        <v>45699.42708333334</v>
+      </c>
+      <c r="B1236" t="n">
+        <v>161</v>
+      </c>
+      <c r="C1236" t="n">
+        <v>161</v>
+      </c>
+      <c r="D1236" t="n">
+        <v>161</v>
+      </c>
+      <c r="E1236" t="n">
+        <v>161</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1236" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1236" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1236" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1236" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1236" t="inlineStr"/>
+    </row>
+    <row r="1237">
+      <c r="A1237" s="2" t="n">
+        <v>45699.46875</v>
+      </c>
+      <c r="B1237" t="n">
+        <v>161</v>
+      </c>
+      <c r="C1237" t="n">
+        <v>161</v>
+      </c>
+      <c r="D1237" t="n">
+        <v>161</v>
+      </c>
+      <c r="E1237" t="n">
+        <v>161</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1237" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1237" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1237" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1237" t="inlineStr"/>
+    </row>
+    <row r="1238">
+      <c r="A1238" s="2" t="n">
+        <v>45699.51041666666</v>
+      </c>
+      <c r="B1238" t="n">
+        <v>161</v>
+      </c>
+      <c r="C1238" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="D1238" t="n">
+        <v>161</v>
+      </c>
+      <c r="E1238" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1238" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1238" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1238" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1238" t="inlineStr"/>
+    </row>
+    <row r="1239">
+      <c r="A1239" s="2" t="n">
+        <v>45699.55208333334</v>
+      </c>
+      <c r="B1239" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="C1239" t="n">
+        <v>167.3999938964844</v>
+      </c>
+      <c r="D1239" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="E1239" t="n">
+        <v>167.3999938964844</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1239" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1239" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1239" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1239" t="inlineStr"/>
+    </row>
+    <row r="1240">
+      <c r="A1240" s="2" t="n">
+        <v>45699.59375</v>
+      </c>
+      <c r="B1240" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="C1240" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="D1240" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="E1240" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1240" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1240" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1240" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1240" t="inlineStr"/>
+    </row>
+    <row r="1241">
+      <c r="A1241" s="2" t="n">
+        <v>45699.63541666666</v>
+      </c>
+      <c r="B1241" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="C1241" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="D1241" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="E1241" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1241" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1241" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1241" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1241" t="inlineStr"/>
+    </row>
+    <row r="1242">
+      <c r="A1242" s="2" t="n">
+        <v>45700.38541666666</v>
+      </c>
+      <c r="B1242" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="C1242" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="D1242" t="n">
+        <v>161</v>
+      </c>
+      <c r="E1242" t="n">
+        <v>161</v>
+      </c>
+      <c r="F1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1242" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1242" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1242" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1242" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1242" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1242" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1242" t="inlineStr"/>
+    </row>
+    <row r="1243">
+      <c r="A1243" s="2" t="n">
+        <v>45700.42708333334</v>
+      </c>
+      <c r="B1243" t="n">
+        <v>163</v>
+      </c>
+      <c r="C1243" t="n">
+        <v>163</v>
+      </c>
+      <c r="D1243" t="n">
+        <v>163</v>
+      </c>
+      <c r="E1243" t="n">
+        <v>163</v>
+      </c>
+      <c r="F1243" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1243" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1243" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1243" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1243" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1243" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1243" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1243" t="inlineStr"/>
+    </row>
+    <row r="1244">
+      <c r="A1244" s="2" t="n">
+        <v>45700.46875</v>
+      </c>
+      <c r="B1244" t="n">
+        <v>172</v>
+      </c>
+      <c r="C1244" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1244" t="n">
+        <v>168</v>
+      </c>
+      <c r="E1244" t="n">
+        <v>168</v>
+      </c>
+      <c r="F1244" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1244" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1244" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1244" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1244" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1244" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1244" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1244" t="inlineStr"/>
+    </row>
+    <row r="1245">
+      <c r="A1245" s="2" t="n">
+        <v>45700.55208333334</v>
+      </c>
+      <c r="B1245" t="n">
+        <v>168</v>
+      </c>
+      <c r="C1245" t="n">
+        <v>168</v>
+      </c>
+      <c r="D1245" t="n">
+        <v>168</v>
+      </c>
+      <c r="E1245" t="n">
+        <v>168</v>
+      </c>
+      <c r="F1245" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1245" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1245" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1245" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1245" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1245" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1245" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1245" t="inlineStr"/>
+    </row>
+    <row r="1246">
+      <c r="A1246" s="2" t="n">
+        <v>45700.63541666666</v>
+      </c>
+      <c r="B1246" t="n">
+        <v>164.1000061035156</v>
+      </c>
+      <c r="C1246" t="n">
+        <v>164.1000061035156</v>
+      </c>
+      <c r="D1246" t="n">
+        <v>164.1000061035156</v>
+      </c>
+      <c r="E1246" t="n">
+        <v>164.1000061035156</v>
+      </c>
+      <c r="F1246" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1246" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1246" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1246" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1246" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1246" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1246" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1246" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
+++ b/stock_historical_data/60m/SAAKSHI-SM.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1246"/>
+  <dimension ref="A1:Q1257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -65975,7 +65975,9 @@
       <c r="P1236" t="n">
         <v>0</v>
       </c>
-      <c r="Q1236" t="inlineStr"/>
+      <c r="Q1236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1237">
       <c r="A1237" s="2" t="n">
@@ -66018,7 +66020,7 @@
         <v>7</v>
       </c>
       <c r="N1237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1237" t="n">
         <v>0</v>
@@ -66026,7 +66028,9 @@
       <c r="P1237" t="n">
         <v>0</v>
       </c>
-      <c r="Q1237" t="inlineStr"/>
+      <c r="Q1237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1238">
       <c r="A1238" s="2" t="n">
@@ -66069,7 +66073,7 @@
         <v>7</v>
       </c>
       <c r="N1238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1238" t="n">
         <v>0</v>
@@ -66077,7 +66081,9 @@
       <c r="P1238" t="n">
         <v>0</v>
       </c>
-      <c r="Q1238" t="inlineStr"/>
+      <c r="Q1238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1239">
       <c r="A1239" s="2" t="n">
@@ -66128,7 +66134,9 @@
       <c r="P1239" t="n">
         <v>0</v>
       </c>
-      <c r="Q1239" t="inlineStr"/>
+      <c r="Q1239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1240">
       <c r="A1240" s="2" t="n">
@@ -66179,7 +66187,9 @@
       <c r="P1240" t="n">
         <v>0</v>
       </c>
-      <c r="Q1240" t="inlineStr"/>
+      <c r="Q1240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1241">
       <c r="A1241" s="2" t="n">
@@ -66230,7 +66240,9 @@
       <c r="P1241" t="n">
         <v>0</v>
       </c>
-      <c r="Q1241" t="inlineStr"/>
+      <c r="Q1241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1242">
       <c r="A1242" s="2" t="n">
@@ -66273,7 +66285,7 @@
         <v>7</v>
       </c>
       <c r="N1242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O1242" t="n">
         <v>0</v>
@@ -66281,7 +66293,9 @@
       <c r="P1242" t="n">
         <v>0</v>
       </c>
-      <c r="Q1242" t="inlineStr"/>
+      <c r="Q1242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1243">
       <c r="A1243" s="2" t="n">
@@ -66332,7 +66346,9 @@
       <c r="P1243" t="n">
         <v>0</v>
       </c>
-      <c r="Q1243" t="inlineStr"/>
+      <c r="Q1243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1244">
       <c r="A1244" s="2" t="n">
@@ -66375,7 +66391,7 @@
         <v>7</v>
       </c>
       <c r="N1244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1244" t="n">
         <v>0</v>
@@ -66383,7 +66399,9 @@
       <c r="P1244" t="n">
         <v>0</v>
       </c>
-      <c r="Q1244" t="inlineStr"/>
+      <c r="Q1244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1245">
       <c r="A1245" s="2" t="n">
@@ -66434,7 +66452,9 @@
       <c r="P1245" t="n">
         <v>0</v>
       </c>
-      <c r="Q1245" t="inlineStr"/>
+      <c r="Q1245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1246">
       <c r="A1246" s="2" t="n">
@@ -66485,7 +66505,570 @@
       <c r="P1246" t="n">
         <v>0</v>
       </c>
-      <c r="Q1246" t="inlineStr"/>
+      <c r="Q1246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" s="2" t="n">
+        <v>45701.38541666666</v>
+      </c>
+      <c r="B1247" t="n">
+        <v>168</v>
+      </c>
+      <c r="C1247" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>168</v>
+      </c>
+      <c r="E1247" t="n">
+        <v>170</v>
+      </c>
+      <c r="F1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1247" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1247" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1247" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1247" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1247" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1247" t="inlineStr"/>
+    </row>
+    <row r="1248">
+      <c r="A1248" s="2" t="n">
+        <v>45701.42708333334</v>
+      </c>
+      <c r="B1248" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="C1248" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="E1248" t="n">
+        <v>172</v>
+      </c>
+      <c r="F1248" t="n">
+        <v>1200</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1248" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1248" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1248" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1248" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1248" t="inlineStr"/>
+    </row>
+    <row r="1249">
+      <c r="A1249" s="2" t="n">
+        <v>45701.46875</v>
+      </c>
+      <c r="B1249" t="n">
+        <v>169</v>
+      </c>
+      <c r="C1249" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>169</v>
+      </c>
+      <c r="E1249" t="n">
+        <v>171.9499969482422</v>
+      </c>
+      <c r="F1249" t="n">
+        <v>3600</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1249" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1249" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1249" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1249" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1249" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1249" t="inlineStr"/>
+    </row>
+    <row r="1250">
+      <c r="A1250" s="2" t="n">
+        <v>45701.51041666666</v>
+      </c>
+      <c r="B1250" t="n">
+        <v>172</v>
+      </c>
+      <c r="C1250" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>172</v>
+      </c>
+      <c r="E1250" t="n">
+        <v>172</v>
+      </c>
+      <c r="F1250" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1250" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1250" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1250" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1250" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1250" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1250" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1250" t="inlineStr"/>
+    </row>
+    <row r="1251">
+      <c r="A1251" s="2" t="n">
+        <v>45701.59375</v>
+      </c>
+      <c r="B1251" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="C1251" t="n">
+        <v>169.8000030517578</v>
+      </c>
+      <c r="D1251" t="n">
+        <v>167.1499938964844</v>
+      </c>
+      <c r="E1251" t="n">
+        <v>167.1499938964844</v>
+      </c>
+      <c r="F1251" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1251" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1251" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1251" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1251" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1251" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1251" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1251" t="inlineStr"/>
+    </row>
+    <row r="1252">
+      <c r="A1252" s="2" t="n">
+        <v>45701.63541666666</v>
+      </c>
+      <c r="B1252" t="n">
+        <v>169</v>
+      </c>
+      <c r="C1252" t="n">
+        <v>169</v>
+      </c>
+      <c r="D1252" t="n">
+        <v>169</v>
+      </c>
+      <c r="E1252" t="n">
+        <v>169</v>
+      </c>
+      <c r="F1252" t="n">
+        <v>600</v>
+      </c>
+      <c r="G1252" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1252" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1252" t="n">
+        <v>13</v>
+      </c>
+      <c r="J1252" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1252" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1252" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1252" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1252" t="inlineStr"/>
+    </row>
+    <row r="1253">
+      <c r="A1253" s="2" t="n">
+        <v>45702.38541666666</v>
+      </c>
+      <c r="B1253" t="n">
+        <v>167</v>
+      </c>
+      <c r="C1253" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1253" t="n">
+        <v>167</v>
+      </c>
+      <c r="E1253" t="n">
+        <v>171.8999938964844</v>
+      </c>
+      <c r="F1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="G1253" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1253" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1253" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1253" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1253" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1253" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1253" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1253" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1253" t="inlineStr"/>
+    </row>
+    <row r="1254">
+      <c r="A1254" s="2" t="n">
+        <v>45702.42708333334</v>
+      </c>
+      <c r="B1254" t="n">
+        <v>171.8999938964844</v>
+      </c>
+      <c r="C1254" t="n">
+        <v>172</v>
+      </c>
+      <c r="D1254" t="n">
+        <v>169</v>
+      </c>
+      <c r="E1254" t="n">
+        <v>169</v>
+      </c>
+      <c r="F1254" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1254" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1254" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1254" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1254" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1254" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1254" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1254" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1254" t="inlineStr"/>
+    </row>
+    <row r="1255">
+      <c r="A1255" s="2" t="n">
+        <v>45702.46875</v>
+      </c>
+      <c r="B1255" t="n">
+        <v>169</v>
+      </c>
+      <c r="C1255" t="n">
+        <v>170</v>
+      </c>
+      <c r="D1255" t="n">
+        <v>167.0500030517578</v>
+      </c>
+      <c r="E1255" t="n">
+        <v>167.0500030517578</v>
+      </c>
+      <c r="F1255" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1255" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1255" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1255" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1255" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1255" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1255" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1255" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1255" t="inlineStr"/>
+    </row>
+    <row r="1256">
+      <c r="A1256" s="2" t="n">
+        <v>45702.55208333334</v>
+      </c>
+      <c r="B1256" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="C1256" t="n">
+        <v>167.5</v>
+      </c>
+      <c r="D1256" t="n">
+        <v>167.0500030517578</v>
+      </c>
+      <c r="E1256" t="n">
+        <v>167.0500030517578</v>
+      </c>
+      <c r="F1256" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G1256" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1256" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1256" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1256" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1256" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1256" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1256" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1256" t="inlineStr"/>
+    </row>
+    <row r="1257">
+      <c r="A1257" s="2" t="n">
+        <v>45702.59375</v>
+      </c>
+      <c r="B1257" t="n">
+        <v>170.9499969482422</v>
+      </c>
+      <c r="C1257" t="n">
+        <v>171.4499969482422</v>
+      </c>
+      <c r="D1257" t="n">
+        <v>168.0500030517578</v>
+      </c>
+      <c r="E1257" t="n">
+        <v>168.0500030517578</v>
+      </c>
+      <c r="F1257" t="n">
+        <v>1800</v>
+      </c>
+      <c r="G1257" t="n">
+        <v>2025</v>
+      </c>
+      <c r="H1257" t="n">
+        <v>2</v>
+      </c>
+      <c r="I1257" t="n">
+        <v>14</v>
+      </c>
+      <c r="J1257" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1257" t="n">
+        <v>15</v>
+      </c>
+      <c r="L1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1257" t="n">
+        <v>7</v>
+      </c>
+      <c r="N1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="O1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1257" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1257" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
